--- a/docs/shr-core-ResearchSubject.xlsx
+++ b/docs/shr-core-ResearchSubject.xlsx
@@ -531,7 +531,7 @@
 </t>
   </si>
   <si>
-    <t>A description and/or code explaining the premature termination of the study.</t>
+    <t>A code explaining unplanned or premature termination of a plan of treatment, course of medication, or research study.</t>
   </si>
   <si>
     <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-TerminationReason-extension"/&gt;</t>
